--- a/biology/Botanique/Forêt_domaniale_de_Marchiennes/Forêt_domaniale_de_Marchiennes.xlsx
+++ b/biology/Botanique/Forêt_domaniale_de_Marchiennes/Forêt_domaniale_de_Marchiennes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Marchiennes</t>
+          <t>Forêt_domaniale_de_Marchiennes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt domaniale de Marchiennes s'étend sur 800 hectares.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Marchiennes</t>
+          <t>Forêt_domaniale_de_Marchiennes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Propriété de l'abbaye de Marchiennes jusqu'en 1793 où elle devient propriété de l'État.
 Ce massif est totalement détruit pendant la Première Guerre Mondiale (rares sont les arbres ayant plus de 90 ans).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Marchiennes</t>
+          <t>Forêt_domaniale_de_Marchiennes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt est assise sur un placage de sable et de sable limoneux [1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt est assise sur un placage de sable et de sable limoneux .
 Le boisement est essentiellement composé de chêne pédonculé, de charmes, d'érables, ponctué de peuplement de pin sylvestre.
 Les caractéristiques écologiques d'intérêt sont reconnus par un inventaire national, une ZNIEFF type I - (no 007-13), qui n'a pas de contraintes réglementaires. Cette ZNIEFF comprend l'ensemble des espaces forestiers et de ses lisières (1 320 ha). Une procédure de modernisation des ZNIEFF est en cours.
 Des mares sont aménagées. Elles permettent le maintien de l'eau à des périodes propices à la vie du Triton crêté.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Marchiennes</t>
+          <t>Forêt_domaniale_de_Marchiennes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Gestion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une expérimentation pour l'extraction de bois par des chevaux de trait est en cours.
 </t>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_domaniale_de_Marchiennes</t>
+          <t>Forêt_domaniale_de_Marchiennes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Loisirs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt accueille plus de 110 000 visiteurs par an. La forêt est fréquentée notamment par de nombreux randonneurs, cavaliers, cyclistes, écoliers, habitants du Parc et du Douaisis.
 Cet afflux s'explique par les aménagements de loisirs réalisés et sa position de vaste espace boisé situé dans un espace régional fortement urbanisé.
